--- a/medicine/Enfance/Thomas_M._Disch/Thomas_M._Disch.xlsx
+++ b/medicine/Enfance/Thomas_M._Disch/Thomas_M._Disch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Michael Disch, né le 2 février 1940 à Des Moines, en Iowa, et mort le 4 juillet 2008 à New York, dans l'État de New York, est un écrivain américain de science-fiction. Il est connu pour être l'un des auteurs de la nouvelle vague de la science-fiction. Il a également publié plusieurs recueils de poèmes, ainsi que quelques romans policiers, essais et ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi un enseignement catholique, dont il fera plus tard la critique dans certains de ses ouvrages, Thomas M. Disch quitte l'Iowa pour Minneapolis en 1953.
 À la fin de ses études en 1957, il multiplie les petits boulots et commence à écrire ses premières nouvelles. Celles-ci sont publiées à partir des années 1960 dans des magazines. L'écriture va dès lors devenir son activité principale, et il se fait connaître par deux grands romans à résonance politique, Génocides (en) (1965) et Camp de concentration (en) (1968), publiés en France en 1970 au Club du livre d'anticipation. 
 Même si la plupart de ses nouvelles développent des thèmes de science-fiction, il écrit également des critiques littéraires et des poèmes. Ces derniers se distinguent notamment par leur ironie et leur humour qui deviendront les caractéristiques principales de l'auteur.
-« Avec John Sladek, il a signé l'excellent roman policier Black Alice (Black Alice, 1968). Âgée de onze ans, la petite Alice a hérité de la fortune de son grand-père que gère un vieux juriste. Le père de l'enfant, après avoir tenté de rendre sa fille folle, la fait kidnapper par un jeune Noir. Maquillée en négresse, Alice est séquestrée dans le bordel que son père fréquente assidûment, alors que les membres du Ku Klux Klan s'opposent à une manifestation pour la reconnaissance des droits civiques des Noirs »[1].
+« Avec John Sladek, il a signé l'excellent roman policier Black Alice (Black Alice, 1968). Âgée de onze ans, la petite Alice a hérité de la fortune de son grand-père que gère un vieux juriste. Le père de l'enfant, après avoir tenté de rendre sa fille folle, la fait kidnapper par un jeune Noir. Maquillée en négresse, Alice est séquestrée dans le bordel que son père fréquente assidûment, alors que les membres du Ku Klux Klan s'opposent à une manifestation pour la reconnaissance des droits civiques des Noirs ».
 Thomas M. Disch a également créé le prix Philip-K.-Dick en hommage à cet auteur.
-Le 5 juillet 2008, il se tire une balle dans la tête[2]. Il est trouvé mort à son appartement new-yorkais le lendemain. Sa mort est annoncée le 6 juillet 2008 par l'éditeur Ellen Datlow[3]. Depuis la mort de son amant  Charles Naylor en 2005, Disch était affligé de dépression.
+Le 5 juillet 2008, il se tire une balle dans la tête. Il est trouvé mort à son appartement new-yorkais le lendemain. Sa mort est annoncée le 6 juillet 2008 par l'éditeur Ellen Datlow. Depuis la mort de son amant  Charles Naylor en 2005, Disch était affligé de dépression.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Noms de plume</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les couvertures de la plupart des œuvres de l'écrivain portent le nom de « Thomas M. Disch », à quelques exceptions près — dont plusieurs de ses recueils de poèmes —, qui recourent au nom de plume « Tom Disch »[4] : Dark Verses &amp; Light (1991, poésie), Yes, Let's : New and Selected Poems (1991, poésie), Here I Am, There You Are, Where Were We (1984, poésie), A Child's Garden of Grammar (1997, livre pour enfants), Burn This (1982, poésie), About the Size of It (2007, poésie).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les couvertures de la plupart des œuvres de l'écrivain portent le nom de « Thomas M. Disch », à quelques exceptions près — dont plusieurs de ses recueils de poèmes —, qui recourent au nom de plume « Tom Disch » : Dark Verses &amp; Light (1991, poésie), Yes, Let's : New and Selected Poems (1991, poésie), Here I Am, There You Are, Where Were We (1984, poésie), A Child's Garden of Grammar (1997, livre pour enfants), Burn This (1982, poésie), About the Size of It (2007, poésie).
 </t>
         </is>
       </c>
@@ -580,24 +596,97 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Génocides, Opta, coll. « Club du livre d'anticipation » no 27, 1970 ((en) The Genocides, 1965)Réédition chez J'ai lu no 1421 en 1983
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Génocides, Opta, coll. « Club du livre d'anticipation » no 27, 1970 ((en) The Genocides, 1965)Réédition chez J'ai lu no 1421 en 1983
 Au cœur de l'écho, Denoël, coll. « Présence du futur » no 144, 1972 ((en) Echo Round His Bones, 1967)
 Camp de concentration, Opta, coll. « Club du livre d'anticipation » no 27, 1970 ((en) Camp Concentration, 1968)Réédition chez J'ai lu no 1421 en 1983
 Black Alice, Payot et Rivages, coll. « Rivages/Noir » no 154, 1993 ((en) Black Alice, 1968)Coécrit avec John T. Sladek.
 Le Prisonnier, Presses de la renaissance, coll. « Autrepart » no 5, 1977 ((en) Prisoner, 1969)Réédition chez Pocket no 5052 en 1979
 Sur les ailes du chant, Denoël, coll. « Présence du futur » no 290, 1980 ((en) On Wings of Songs, 1979)Réédition chez Gallimard, coll. « Folio SF » no 50, en 2001
 Le Businessman, Denoël, coll. « Présence du futur » no 377, 1983 ((en) The Businessman, 1983)
-Le Caducée maléfique, Julliard, 1993 ((en) The M.D., 1991)Réédition chez Pocket no 9120 en 1994
-Recueils et anthologies
-Poussière de lune, Denoël, coll. « Présence du futur » no 172, 1973 ((en) Under Compulsion, 1968)
+Le Caducée maléfique, Julliard, 1993 ((en) The M.D., 1991)Réédition chez Pocket no 9120 en 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thomas_M._Disch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_M._Disch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils et anthologies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Poussière de lune, Denoël, coll. « Présence du futur » no 172, 1973 ((en) Under Compulsion, 1968)
 (en) The Ruins of Earth, 1971En tant qu'anthologiste
 334, Denoël, coll. « Présence du futur » no 203, 1976 ((en) 334, 1972)
 Rives de mort, Henri Veyrier, coll. « Off », 1978 ((en) Getting Into Death, 1978)
 Le Livre d'or de la science-fiction : Thomas Disch, Pocket, coll. « Le Livre d'or de la science-fiction », 1981
-L'Homme sans idées, Denoël, coll. « Présence du futur » no 352, 1983 ((en) The Man Who Had No Ideas, 1982)
-Nouvelles
-Un emploi du temps très chargé ((en) The Double-Timer, 1962)Publiée dans le recueil Le Livre d'or de la science-fiction : Thomas Disch, Paris, Pocket no 5103, 1981
+L'Homme sans idées, Denoël, coll. « Présence du futur » no 352, 1983 ((en) The Man Who Had No Ideas, 1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thomas_M._Disch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_M._Disch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un emploi du temps très chargé ((en) The Double-Timer, 1962)Publiée dans le recueil Le Livre d'or de la science-fiction : Thomas Disch, Paris, Pocket no 5103, 1981
 Démiurges ((en) The Demi-Urge, 1963)Publiée dans le recueil Le Livre d'or de la science-fiction : Thomas Disch, Paris, Pocket no 5103, 1981
 Utopie ? Impossible ! ((en) Utopia? Never!, 1963)Publiée dans le recueil Le Livre d'or de la science-fiction : Thomas Disch, Paris, Pocket no 5103, 1981
 Le Retour de la Méduse ((en) The Return of the Medusae, 1963)Publiée dans le recueil Le Livre d'or de la science-fiction : Thomas Disch, Paris, Pocket no 5103, 1981
@@ -687,31 +776,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Thomas_M._Disch</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_M._Disch</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix John-Wood-Campbell Memorial 1980 pour Sur les ailes du chant
 Prix British Science Fiction de la meilleure fiction courte 1980 pour Le Brave Petit Grille-pain
